--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efnb1-Ephb4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efnb1-Ephb4.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.620737999999999</v>
+        <v>10.430598</v>
       </c>
       <c r="H2">
-        <v>17.241476</v>
+        <v>20.861196</v>
       </c>
       <c r="I2">
-        <v>0.3739306639504602</v>
+        <v>0.5361372314060847</v>
       </c>
       <c r="J2">
-        <v>0.2958469204929191</v>
+        <v>0.4628062232731417</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>48.3439545</v>
+        <v>35.785616</v>
       </c>
       <c r="N2">
-        <v>96.68790899999999</v>
+        <v>71.57123199999999</v>
       </c>
       <c r="O2">
-        <v>0.5906069762936997</v>
+        <v>0.8147315746812694</v>
       </c>
       <c r="P2">
-        <v>0.5029826098832294</v>
+        <v>0.7806715551186352</v>
       </c>
       <c r="Q2">
-        <v>416.7605656284209</v>
+        <v>373.2653746783679</v>
       </c>
       <c r="R2">
-        <v>1667.042262513684</v>
+        <v>1493.061498713472</v>
       </c>
       <c r="S2">
-        <v>0.2208460587792768</v>
+        <v>0.4368079307887355</v>
       </c>
       <c r="T2">
-        <v>0.1488058561954447</v>
+        <v>0.3612996540412259</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.620737999999999</v>
+        <v>10.430598</v>
       </c>
       <c r="H3">
-        <v>17.241476</v>
+        <v>20.861196</v>
       </c>
       <c r="I3">
-        <v>0.3739306639504602</v>
+        <v>0.5361372314060847</v>
       </c>
       <c r="J3">
-        <v>0.2958469204929191</v>
+        <v>0.4628062232731417</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>11.269592</v>
       </c>
       <c r="O3">
-        <v>0.04589267140722955</v>
+        <v>0.08552498147277421</v>
       </c>
       <c r="P3">
-        <v>0.05862582876292385</v>
+        <v>0.1229243882820479</v>
       </c>
       <c r="Q3">
-        <v>32.38406666629866</v>
+        <v>39.182861258672</v>
       </c>
       <c r="R3">
-        <v>194.304399997792</v>
+        <v>235.097167552032</v>
       </c>
       <c r="S3">
-        <v>0.01716067708976565</v>
+        <v>0.04585312678286985</v>
       </c>
       <c r="T3">
-        <v>0.01734427090085622</v>
+        <v>0.05689017188897582</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.620737999999999</v>
+        <v>10.430598</v>
       </c>
       <c r="H4">
-        <v>17.241476</v>
+        <v>20.861196</v>
       </c>
       <c r="I4">
-        <v>0.3739306639504602</v>
+        <v>0.5361372314060847</v>
       </c>
       <c r="J4">
-        <v>0.2958469204929191</v>
+        <v>0.4628062232731417</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.03548533333333333</v>
+        <v>4.30492</v>
       </c>
       <c r="N4">
-        <v>0.106456</v>
+        <v>8.60984</v>
       </c>
       <c r="O4">
-        <v>0.0004335161581118491</v>
+        <v>0.09801016840053531</v>
       </c>
       <c r="P4">
-        <v>0.0005537974424261163</v>
+        <v>0.09391283333117181</v>
       </c>
       <c r="Q4">
-        <v>0.3059097615093333</v>
+        <v>44.90288994216</v>
       </c>
       <c r="R4">
-        <v>1.835458569056</v>
+        <v>179.61155976864</v>
       </c>
       <c r="S4">
-        <v>0.0001621049848360164</v>
+        <v>0.05254690033590713</v>
       </c>
       <c r="T4">
-        <v>0.0001638392679186211</v>
+        <v>0.04346344371087965</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.620737999999999</v>
+        <v>10.430598</v>
       </c>
       <c r="H5">
-        <v>17.241476</v>
+        <v>20.861196</v>
       </c>
       <c r="I5">
-        <v>0.3739306639504602</v>
+        <v>0.5361372314060847</v>
       </c>
       <c r="J5">
-        <v>0.2958469204929191</v>
+        <v>0.4628062232731417</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>4.9910045</v>
+        <v>0.06227666666666667</v>
       </c>
       <c r="N5">
-        <v>9.982009</v>
+        <v>0.18683</v>
       </c>
       <c r="O5">
-        <v>0.06097395438375338</v>
+        <v>0.001417853662187452</v>
       </c>
       <c r="P5">
-        <v>0.05192766076571049</v>
+        <v>0.002037870001215217</v>
       </c>
       <c r="Q5">
-        <v>43.026142151321</v>
+        <v>0.64958287478</v>
       </c>
       <c r="R5">
-        <v>172.104568605284</v>
+        <v>3.89749724868</v>
       </c>
       <c r="S5">
-        <v>0.02280003124640197</v>
+        <v>0.0007601641369841584</v>
       </c>
       <c r="T5">
-        <v>0.01536263852593642</v>
+        <v>0.0009431389187840476</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.620737999999999</v>
+        <v>10.430598</v>
       </c>
       <c r="H6">
-        <v>17.241476</v>
+        <v>20.861196</v>
       </c>
       <c r="I6">
-        <v>0.3739306639504602</v>
+        <v>0.5361372314060847</v>
       </c>
       <c r="J6">
-        <v>0.2958469204929191</v>
+        <v>0.4628062232731417</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>24.727721</v>
+        <v>0.01385433333333333</v>
       </c>
       <c r="N6">
-        <v>74.18316300000001</v>
+        <v>0.041563</v>
       </c>
       <c r="O6">
-        <v>0.3020928817572056</v>
+        <v>0.000315421783233405</v>
       </c>
       <c r="P6">
-        <v>0.3859101031457101</v>
+        <v>0.0004533532669298726</v>
       </c>
       <c r="Q6">
-        <v>213.171204078098</v>
+        <v>0.144508981558</v>
       </c>
       <c r="R6">
-        <v>1279.027224468588</v>
+        <v>0.8670538893480001</v>
       </c>
       <c r="S6">
-        <v>0.1129617918501797</v>
+        <v>0.0001691093615879279</v>
       </c>
       <c r="T6">
-        <v>0.1141703156027631</v>
+        <v>0.0002098147132763548</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>15.23399</v>
       </c>
       <c r="I7">
-        <v>0.2202617299243858</v>
+        <v>0.2610112166105907</v>
       </c>
       <c r="J7">
-        <v>0.2614004177090131</v>
+        <v>0.3379664990099709</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>48.3439545</v>
+        <v>35.785616</v>
       </c>
       <c r="N7">
-        <v>96.68790899999999</v>
+        <v>71.57123199999999</v>
       </c>
       <c r="O7">
-        <v>0.5906069762936997</v>
+        <v>0.8147315746812694</v>
       </c>
       <c r="P7">
-        <v>0.5029826098832294</v>
+        <v>0.7806715551186352</v>
       </c>
       <c r="Q7">
-        <v>245.490439804485</v>
+        <v>181.7192387626133</v>
       </c>
       <c r="R7">
-        <v>1472.94263882691</v>
+        <v>1090.31543257568</v>
       </c>
       <c r="S7">
-        <v>0.1300881143038611</v>
+        <v>0.2126540795186204</v>
       </c>
       <c r="T7">
-        <v>0.1314798643238457</v>
+        <v>0.2638408323601146</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>15.23399</v>
       </c>
       <c r="I8">
-        <v>0.2202617299243858</v>
+        <v>0.2610112166105907</v>
       </c>
       <c r="J8">
-        <v>0.2614004177090131</v>
+        <v>0.3379664990099709</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -939,10 +939,10 @@
         <v>11.269592</v>
       </c>
       <c r="O8">
-        <v>0.04589267140722955</v>
+        <v>0.08552498147277421</v>
       </c>
       <c r="P8">
-        <v>0.05862582876292385</v>
+        <v>0.1229243882820479</v>
       </c>
       <c r="Q8">
         <v>19.07565020356444</v>
@@ -951,10 +951,10 @@
         <v>171.68085183208</v>
       </c>
       <c r="S8">
-        <v>0.01010839919500778</v>
+        <v>0.02232297946480702</v>
       </c>
       <c r="T8">
-        <v>0.01532481612716537</v>
+        <v>0.04154432515062601</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>15.23399</v>
       </c>
       <c r="I9">
-        <v>0.2202617299243858</v>
+        <v>0.2610112166105907</v>
       </c>
       <c r="J9">
-        <v>0.2614004177090131</v>
+        <v>0.3379664990099709</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.03548533333333333</v>
+        <v>4.30492</v>
       </c>
       <c r="N9">
-        <v>0.106456</v>
+        <v>8.60984</v>
       </c>
       <c r="O9">
-        <v>0.0004335161581118491</v>
+        <v>0.09801016840053531</v>
       </c>
       <c r="P9">
-        <v>0.0005537974424261163</v>
+        <v>0.09391283333117181</v>
       </c>
       <c r="Q9">
-        <v>0.1801944043822222</v>
+        <v>21.86036941026667</v>
       </c>
       <c r="R9">
-        <v>1.62174963944</v>
+        <v>131.1622164616</v>
       </c>
       <c r="S9">
-        <v>9.548701893588945E-05</v>
+        <v>0.02558175329443259</v>
       </c>
       <c r="T9">
-        <v>0.0001447628827763699</v>
+        <v>0.03173939149304304</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,40 +1045,40 @@
         <v>15.23399</v>
       </c>
       <c r="I10">
-        <v>0.2202617299243858</v>
+        <v>0.2610112166105907</v>
       </c>
       <c r="J10">
-        <v>0.2614004177090131</v>
+        <v>0.3379664990099709</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>4.9910045</v>
+        <v>0.06227666666666667</v>
       </c>
       <c r="N10">
-        <v>9.982009</v>
+        <v>0.18683</v>
       </c>
       <c r="O10">
-        <v>0.06097395438375338</v>
+        <v>0.001417853662187452</v>
       </c>
       <c r="P10">
-        <v>0.05192766076571049</v>
+        <v>0.002037870001215217</v>
       </c>
       <c r="Q10">
-        <v>25.34430421431833</v>
+        <v>0.3162407057444445</v>
       </c>
       <c r="R10">
-        <v>152.06582528591</v>
+        <v>2.8461663517</v>
       </c>
       <c r="S10">
-        <v>0.01343022867289611</v>
+        <v>0.0003700757093433282</v>
       </c>
       <c r="T10">
-        <v>0.01357391221480865</v>
+        <v>0.0006887317897481521</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,40 +1107,40 @@
         <v>15.23399</v>
       </c>
       <c r="I11">
-        <v>0.2202617299243858</v>
+        <v>0.2610112166105907</v>
       </c>
       <c r="J11">
-        <v>0.2614004177090131</v>
+        <v>0.3379664990099709</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>24.727721</v>
+        <v>0.01385433333333333</v>
       </c>
       <c r="N11">
-        <v>74.18316300000001</v>
+        <v>0.041563</v>
       </c>
       <c r="O11">
-        <v>0.3020928817572056</v>
+        <v>0.000315421783233405</v>
       </c>
       <c r="P11">
-        <v>0.3859101031457101</v>
+        <v>0.0004533532669298726</v>
       </c>
       <c r="Q11">
-        <v>125.5672848122633</v>
+        <v>0.07035225848555555</v>
       </c>
       <c r="R11">
-        <v>1130.10556331037</v>
+        <v>0.63317032637</v>
       </c>
       <c r="S11">
-        <v>0.06653950073368503</v>
+        <v>8.232862338723304E-05</v>
       </c>
       <c r="T11">
-        <v>0.1008770621604169</v>
+        <v>0.0001532182164390218</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.264576</v>
+        <v>0.143788</v>
       </c>
       <c r="H12">
-        <v>0.793728</v>
+        <v>0.431364</v>
       </c>
       <c r="I12">
-        <v>0.01147617284568409</v>
+        <v>0.007390765153581618</v>
       </c>
       <c r="J12">
-        <v>0.01361959872281258</v>
+        <v>0.009569822540183962</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>48.3439545</v>
+        <v>35.785616</v>
       </c>
       <c r="N12">
-        <v>96.68790899999999</v>
+        <v>71.57123199999999</v>
       </c>
       <c r="O12">
-        <v>0.5906069762936997</v>
+        <v>0.8147315746812694</v>
       </c>
       <c r="P12">
-        <v>0.5029826098832294</v>
+        <v>0.7806715551186352</v>
       </c>
       <c r="Q12">
-        <v>12.790650105792</v>
+        <v>5.145542153408</v>
       </c>
       <c r="R12">
-        <v>76.74390063475199</v>
+        <v>30.873252920448</v>
       </c>
       <c r="S12">
-        <v>0.006777907743813342</v>
+        <v>0.006021489731677005</v>
       </c>
       <c r="T12">
-        <v>0.006850421311162567</v>
+        <v>0.007470888244654781</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.264576</v>
+        <v>0.143788</v>
       </c>
       <c r="H13">
-        <v>0.793728</v>
+        <v>0.431364</v>
       </c>
       <c r="I13">
-        <v>0.01147617284568409</v>
+        <v>0.007390765153581618</v>
       </c>
       <c r="J13">
-        <v>0.01361959872281258</v>
+        <v>0.009569822540183962</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1249,22 +1249,22 @@
         <v>11.269592</v>
       </c>
       <c r="O13">
-        <v>0.04589267140722955</v>
+        <v>0.08552498147277421</v>
       </c>
       <c r="P13">
-        <v>0.05862582876292385</v>
+        <v>0.1229243882820479</v>
       </c>
       <c r="Q13">
-        <v>0.9938878576639999</v>
+        <v>0.5401440314986666</v>
       </c>
       <c r="R13">
-        <v>8.944990718975999</v>
+        <v>4.861296283488</v>
       </c>
       <c r="S13">
-        <v>0.0005266722294195503</v>
+        <v>0.000632095052829693</v>
       </c>
       <c r="T13">
-        <v>0.0007984602625433465</v>
+        <v>0.001176364581719867</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1287,46 +1287,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.264576</v>
+        <v>0.143788</v>
       </c>
       <c r="H14">
-        <v>0.793728</v>
+        <v>0.431364</v>
       </c>
       <c r="I14">
-        <v>0.01147617284568409</v>
+        <v>0.007390765153581618</v>
       </c>
       <c r="J14">
-        <v>0.01361959872281258</v>
+        <v>0.009569822540183962</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.03548533333333333</v>
+        <v>4.30492</v>
       </c>
       <c r="N14">
-        <v>0.106456</v>
+        <v>8.60984</v>
       </c>
       <c r="O14">
-        <v>0.0004335161581118491</v>
+        <v>0.09801016840053531</v>
       </c>
       <c r="P14">
-        <v>0.0005537974424261163</v>
+        <v>0.09391283333117181</v>
       </c>
       <c r="Q14">
-        <v>0.009388567552</v>
+        <v>0.61899583696</v>
       </c>
       <c r="R14">
-        <v>0.084497107968</v>
+        <v>3.71397502176</v>
       </c>
       <c r="S14">
-        <v>4.975106361888492E-06</v>
+        <v>0.0007243701373113425</v>
       </c>
       <c r="T14">
-        <v>7.542498939563605E-06</v>
+        <v>0.0008987291492251877</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -1349,46 +1349,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.264576</v>
+        <v>0.143788</v>
       </c>
       <c r="H15">
-        <v>0.793728</v>
+        <v>0.431364</v>
       </c>
       <c r="I15">
-        <v>0.01147617284568409</v>
+        <v>0.007390765153581618</v>
       </c>
       <c r="J15">
-        <v>0.01361959872281258</v>
+        <v>0.009569822540183962</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>4.9910045</v>
+        <v>0.06227666666666667</v>
       </c>
       <c r="N15">
-        <v>9.982009</v>
+        <v>0.18683</v>
       </c>
       <c r="O15">
-        <v>0.06097395438375338</v>
+        <v>0.001417853662187452</v>
       </c>
       <c r="P15">
-        <v>0.05192766076571049</v>
+        <v>0.002037870001215217</v>
       </c>
       <c r="Q15">
-        <v>1.320500006592</v>
+        <v>0.008954637346666667</v>
       </c>
       <c r="R15">
-        <v>7.923000039552</v>
+        <v>0.08059173611999999</v>
       </c>
       <c r="S15">
-        <v>0.0006997476395928107</v>
+        <v>1.04790234393731E-05</v>
       </c>
       <c r="T15">
-        <v>0.0007072339022433153</v>
+        <v>1.950205427159411E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1411,46 +1411,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.264576</v>
+        <v>0.143788</v>
       </c>
       <c r="H16">
-        <v>0.793728</v>
+        <v>0.431364</v>
       </c>
       <c r="I16">
-        <v>0.01147617284568409</v>
+        <v>0.007390765153581618</v>
       </c>
       <c r="J16">
-        <v>0.01361959872281258</v>
+        <v>0.009569822540183962</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>24.727721</v>
+        <v>0.01385433333333333</v>
       </c>
       <c r="N16">
-        <v>74.18316300000001</v>
+        <v>0.041563</v>
       </c>
       <c r="O16">
-        <v>0.3020928817572056</v>
+        <v>0.000315421783233405</v>
       </c>
       <c r="P16">
-        <v>0.3859101031457101</v>
+        <v>0.0004533532669298726</v>
       </c>
       <c r="Q16">
-        <v>6.542361511296</v>
+        <v>0.001992086881333334</v>
       </c>
       <c r="R16">
-        <v>58.88125360166401</v>
+        <v>0.017928781932</v>
       </c>
       <c r="S16">
-        <v>0.003466870126496496</v>
+        <v>2.331208324202024E-06</v>
       </c>
       <c r="T16">
-        <v>0.005255940747923782</v>
+        <v>4.338510312531531E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.26402</v>
+        <v>2.8592275</v>
       </c>
       <c r="H17">
-        <v>4.52804</v>
+        <v>5.718455000000001</v>
       </c>
       <c r="I17">
-        <v>0.09820348348333063</v>
+        <v>0.1469655254483148</v>
       </c>
       <c r="J17">
-        <v>0.07769675228900108</v>
+        <v>0.1268640859089486</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>48.3439545</v>
+        <v>35.785616</v>
       </c>
       <c r="N17">
-        <v>96.68790899999999</v>
+        <v>71.57123199999999</v>
       </c>
       <c r="O17">
-        <v>0.5906069762936997</v>
+        <v>0.8147315746812694</v>
       </c>
       <c r="P17">
-        <v>0.5029826098832294</v>
+        <v>0.7806715551186352</v>
       </c>
       <c r="Q17">
-        <v>109.45167986709</v>
+        <v>102.31921737164</v>
       </c>
       <c r="R17">
-        <v>437.8067194683599</v>
+        <v>409.27686948656</v>
       </c>
       <c r="S17">
-        <v>0.05799966244159819</v>
+        <v>0.1197374539723657</v>
       </c>
       <c r="T17">
-        <v>0.03908011524577254</v>
+        <v>0.09903918323524301</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.26402</v>
+        <v>2.8592275</v>
       </c>
       <c r="H18">
-        <v>4.52804</v>
+        <v>5.718455000000001</v>
       </c>
       <c r="I18">
-        <v>0.09820348348333063</v>
+        <v>0.1469655254483148</v>
       </c>
       <c r="J18">
-        <v>0.07769675228900108</v>
+        <v>0.1268640859089486</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1559,22 +1559,22 @@
         <v>11.269592</v>
       </c>
       <c r="O18">
-        <v>0.04589267140722955</v>
+        <v>0.08552498147277421</v>
       </c>
       <c r="P18">
-        <v>0.05862582876292385</v>
+        <v>0.1229243882820479</v>
       </c>
       <c r="Q18">
-        <v>8.504860559946666</v>
+        <v>10.74077578672667</v>
       </c>
       <c r="R18">
-        <v>51.02916335968</v>
+        <v>64.44465472036001</v>
       </c>
       <c r="S18">
-        <v>0.004506820198545787</v>
+        <v>0.01256922384110365</v>
       </c>
       <c r="T18">
-        <v>0.004555036495130289</v>
+        <v>0.01559469015531867</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.26402</v>
+        <v>2.8592275</v>
       </c>
       <c r="H19">
-        <v>4.52804</v>
+        <v>5.718455000000001</v>
       </c>
       <c r="I19">
-        <v>0.09820348348333063</v>
+        <v>0.1469655254483148</v>
       </c>
       <c r="J19">
-        <v>0.07769675228900108</v>
+        <v>0.1268640859089486</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.03548533333333333</v>
+        <v>4.30492</v>
       </c>
       <c r="N19">
-        <v>0.106456</v>
+        <v>8.60984</v>
       </c>
       <c r="O19">
-        <v>0.0004335161581118491</v>
+        <v>0.09801016840053531</v>
       </c>
       <c r="P19">
-        <v>0.0005537974424261163</v>
+        <v>0.09391283333117181</v>
       </c>
       <c r="Q19">
-        <v>0.08033950437333333</v>
+        <v>12.3087456493</v>
       </c>
       <c r="R19">
-        <v>0.4820370262399999</v>
+        <v>49.2349825972</v>
       </c>
       <c r="S19">
-        <v>4.257279687289392E-05</v>
+        <v>0.01440411589826249</v>
       </c>
       <c r="T19">
-        <v>4.30282627024643E-05</v>
+        <v>0.01191416575567855</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.26402</v>
+        <v>2.8592275</v>
       </c>
       <c r="H20">
-        <v>4.52804</v>
+        <v>5.718455000000001</v>
       </c>
       <c r="I20">
-        <v>0.09820348348333063</v>
+        <v>0.1469655254483148</v>
       </c>
       <c r="J20">
-        <v>0.07769675228900108</v>
+        <v>0.1268640859089486</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>4.9910045</v>
+        <v>0.06227666666666667</v>
       </c>
       <c r="N20">
-        <v>9.982009</v>
+        <v>0.18683</v>
       </c>
       <c r="O20">
-        <v>0.06097395438375338</v>
+        <v>0.001417853662187452</v>
       </c>
       <c r="P20">
-        <v>0.05192766076571049</v>
+        <v>0.002037870001215217</v>
       </c>
       <c r="Q20">
-        <v>11.29973400809</v>
+        <v>0.1780631579416667</v>
       </c>
       <c r="R20">
-        <v>45.19893603236</v>
+        <v>1.06837894765</v>
       </c>
       <c r="S20">
-        <v>0.00598785472223828</v>
+        <v>0.0002083756084721962</v>
       </c>
       <c r="T20">
-        <v>0.004034610595460688</v>
+        <v>0.0002585325149054364</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1721,46 +1721,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.26402</v>
+        <v>2.8592275</v>
       </c>
       <c r="H21">
-        <v>4.52804</v>
+        <v>5.718455000000001</v>
       </c>
       <c r="I21">
-        <v>0.09820348348333063</v>
+        <v>0.1469655254483148</v>
       </c>
       <c r="J21">
-        <v>0.07769675228900108</v>
+        <v>0.1268640859089486</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>24.727721</v>
+        <v>0.01385433333333333</v>
       </c>
       <c r="N21">
-        <v>74.18316300000001</v>
+        <v>0.041563</v>
       </c>
       <c r="O21">
-        <v>0.3020928817572056</v>
+        <v>0.000315421783233405</v>
       </c>
       <c r="P21">
-        <v>0.3859101031457101</v>
+        <v>0.0004533532669298726</v>
       </c>
       <c r="Q21">
-        <v>55.98405489842001</v>
+        <v>0.03961269086083334</v>
       </c>
       <c r="R21">
-        <v>335.90432939052</v>
+        <v>0.237676145165</v>
       </c>
       <c r="S21">
-        <v>0.02966657332407549</v>
+        <v>4.635612811074181E-05</v>
       </c>
       <c r="T21">
-        <v>0.02998396168993509</v>
+        <v>5.751424780289384E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.413899000000001</v>
+        <v>0.7979563333333332</v>
       </c>
       <c r="H22">
-        <v>19.241697</v>
+        <v>2.393869</v>
       </c>
       <c r="I22">
-        <v>0.2782074471560547</v>
+        <v>0.04101529934681446</v>
       </c>
       <c r="J22">
-        <v>0.3301687629590321</v>
+        <v>0.05310805147033049</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>48.3439545</v>
+        <v>35.785616</v>
       </c>
       <c r="N22">
-        <v>96.68790899999999</v>
+        <v>71.57123199999999</v>
       </c>
       <c r="O22">
-        <v>0.5906069762936997</v>
+        <v>0.8147315746812694</v>
       </c>
       <c r="P22">
-        <v>0.5029826098832294</v>
+        <v>0.7806715551186352</v>
       </c>
       <c r="Q22">
-        <v>310.0732414235955</v>
+        <v>28.55535892943466</v>
       </c>
       <c r="R22">
-        <v>1860.439448541573</v>
+        <v>171.332153576608</v>
       </c>
       <c r="S22">
-        <v>0.1643112591472267</v>
+        <v>0.03341645942285378</v>
       </c>
       <c r="T22">
-        <v>0.1660691460950513</v>
+        <v>0.04145994513066342</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.413899000000001</v>
+        <v>0.7979563333333332</v>
       </c>
       <c r="H23">
-        <v>19.241697</v>
+        <v>2.393869</v>
       </c>
       <c r="I23">
-        <v>0.2782074471560547</v>
+        <v>0.04101529934681446</v>
       </c>
       <c r="J23">
-        <v>0.3301687629590321</v>
+        <v>0.05310805147033049</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1869,22 +1869,22 @@
         <v>11.269592</v>
       </c>
       <c r="O23">
-        <v>0.04589267140722955</v>
+        <v>0.08552498147277421</v>
       </c>
       <c r="P23">
-        <v>0.05862582876292385</v>
+        <v>0.1229243882820479</v>
       </c>
       <c r="Q23">
-        <v>24.09400828640267</v>
+        <v>2.997547436827555</v>
       </c>
       <c r="R23">
-        <v>216.846074577624</v>
+        <v>26.97792693144799</v>
       </c>
       <c r="S23">
-        <v>0.012767682955377</v>
+        <v>0.003507832716736594</v>
       </c>
       <c r="T23">
-        <v>0.01935641736010261</v>
+        <v>0.006528274739841889</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,7 +1898,7 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.413899000000001</v>
+        <v>0.7979563333333332</v>
       </c>
       <c r="H24">
-        <v>19.241697</v>
+        <v>2.393869</v>
       </c>
       <c r="I24">
-        <v>0.2782074471560547</v>
+        <v>0.04101529934681446</v>
       </c>
       <c r="J24">
-        <v>0.3301687629590321</v>
+        <v>0.05310805147033049</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.03548533333333333</v>
+        <v>4.30492</v>
       </c>
       <c r="N24">
-        <v>0.106456</v>
+        <v>8.60984</v>
       </c>
       <c r="O24">
-        <v>0.0004335161581118491</v>
+        <v>0.09801016840053531</v>
       </c>
       <c r="P24">
-        <v>0.0005537974424261163</v>
+        <v>0.09391283333117181</v>
       </c>
       <c r="Q24">
-        <v>0.2275993439813334</v>
+        <v>3.435138178493333</v>
       </c>
       <c r="R24">
-        <v>2.048394095832</v>
+        <v>20.61082907096</v>
       </c>
       <c r="S24">
-        <v>0.0001206074236491981</v>
+        <v>0.004019916395979651</v>
       </c>
       <c r="T24">
-        <v>0.0001828466164957066</v>
+        <v>0.004987527586276441</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,7 +1960,7 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.413899000000001</v>
+        <v>0.7979563333333332</v>
       </c>
       <c r="H25">
-        <v>19.241697</v>
+        <v>2.393869</v>
       </c>
       <c r="I25">
-        <v>0.2782074471560547</v>
+        <v>0.04101529934681446</v>
       </c>
       <c r="J25">
-        <v>0.3301687629590321</v>
+        <v>0.05310805147033049</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>4.9910045</v>
+        <v>0.06227666666666667</v>
       </c>
       <c r="N25">
-        <v>9.982009</v>
+        <v>0.18683</v>
       </c>
       <c r="O25">
-        <v>0.06097395438375338</v>
+        <v>0.001417853662187452</v>
       </c>
       <c r="P25">
-        <v>0.05192766076571049</v>
+        <v>0.002037870001215217</v>
       </c>
       <c r="Q25">
-        <v>32.0117987715455</v>
+        <v>0.04969406058555555</v>
       </c>
       <c r="R25">
-        <v>192.070792629273</v>
+        <v>0.4472465452699999</v>
       </c>
       <c r="S25">
-        <v>0.01696340819211376</v>
+        <v>5.815369238459547E-05</v>
       </c>
       <c r="T25">
-        <v>0.0171448915183709</v>
+        <v>0.0001082273049143802</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,7 +2022,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,46 +2031,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>6.413899000000001</v>
+        <v>0.7979563333333332</v>
       </c>
       <c r="H26">
-        <v>19.241697</v>
+        <v>2.393869</v>
       </c>
       <c r="I26">
-        <v>0.2782074471560547</v>
+        <v>0.04101529934681446</v>
       </c>
       <c r="J26">
-        <v>0.3301687629590321</v>
+        <v>0.05310805147033049</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>24.727721</v>
+        <v>0.01385433333333333</v>
       </c>
       <c r="N26">
-        <v>74.18316300000001</v>
+        <v>0.041563</v>
       </c>
       <c r="O26">
-        <v>0.3020928817572056</v>
+        <v>0.000315421783233405</v>
       </c>
       <c r="P26">
-        <v>0.3859101031457101</v>
+        <v>0.0004533532669298726</v>
       </c>
       <c r="Q26">
-        <v>158.601104994179</v>
+        <v>0.01105515302744444</v>
       </c>
       <c r="R26">
-        <v>1427.409944947611</v>
+        <v>0.09949637724699999</v>
       </c>
       <c r="S26">
-        <v>0.08404448943768805</v>
+        <v>1.293711885982413E-05</v>
       </c>
       <c r="T26">
-        <v>0.1274154613690116</v>
+        <v>2.407670863435415E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>20</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.413146</v>
+        <v>0.1455233333333333</v>
       </c>
       <c r="H27">
-        <v>1.239438</v>
+        <v>0.43657</v>
       </c>
       <c r="I27">
-        <v>0.0179205026400845</v>
+        <v>0.007479962034613753</v>
       </c>
       <c r="J27">
-        <v>0.02126754782722214</v>
+        <v>0.009685317797424247</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>48.3439545</v>
+        <v>35.785616</v>
       </c>
       <c r="N27">
-        <v>96.68790899999999</v>
+        <v>71.57123199999999</v>
       </c>
       <c r="O27">
-        <v>0.5906069762936997</v>
+        <v>0.8147315746812694</v>
       </c>
       <c r="P27">
-        <v>0.5029826098832294</v>
+        <v>0.7806715551186352</v>
       </c>
       <c r="Q27">
-        <v>19.973111425857</v>
+        <v>5.207642125706666</v>
       </c>
       <c r="R27">
-        <v>119.838668555142</v>
+        <v>31.24585275424</v>
       </c>
       <c r="S27">
-        <v>0.01058397387792357</v>
+        <v>0.006094161247016975</v>
       </c>
       <c r="T27">
-        <v>0.0106972067119526</v>
+        <v>0.007561052106733381</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>21</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.413146</v>
+        <v>0.1455233333333333</v>
       </c>
       <c r="H28">
-        <v>1.239438</v>
+        <v>0.43657</v>
       </c>
       <c r="I28">
-        <v>0.0179205026400845</v>
+        <v>0.007479962034613753</v>
       </c>
       <c r="J28">
-        <v>0.02126754782722214</v>
+        <v>0.009685317797424247</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2179,22 +2179,22 @@
         <v>11.269592</v>
       </c>
       <c r="O28">
-        <v>0.04589267140722955</v>
+        <v>0.08552498147277421</v>
       </c>
       <c r="P28">
-        <v>0.05862582876292385</v>
+        <v>0.1229243882820479</v>
       </c>
       <c r="Q28">
-        <v>1.551995618810667</v>
+        <v>0.5466628643822222</v>
       </c>
       <c r="R28">
-        <v>13.967960569296</v>
+        <v>4.91996577944</v>
       </c>
       <c r="S28">
-        <v>0.0008224197391137878</v>
+        <v>0.0006397236144273957</v>
       </c>
       <c r="T28">
-        <v>0.001246827617126018</v>
+        <v>0.001190561765565607</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2208,55 +2208,55 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.413146</v>
+        <v>0.1455233333333333</v>
       </c>
       <c r="H29">
-        <v>1.239438</v>
+        <v>0.43657</v>
       </c>
       <c r="I29">
-        <v>0.0179205026400845</v>
+        <v>0.007479962034613753</v>
       </c>
       <c r="J29">
-        <v>0.02126754782722214</v>
+        <v>0.009685317797424247</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L29">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M29">
-        <v>0.03548533333333333</v>
+        <v>4.30492</v>
       </c>
       <c r="N29">
-        <v>0.106456</v>
+        <v>8.60984</v>
       </c>
       <c r="O29">
-        <v>0.0004335161581118491</v>
+        <v>0.09801016840053531</v>
       </c>
       <c r="P29">
-        <v>0.0005537974424261163</v>
+        <v>0.09391283333117181</v>
       </c>
       <c r="Q29">
-        <v>0.01466062352533333</v>
+        <v>0.6264663081333334</v>
       </c>
       <c r="R29">
-        <v>0.131945611728</v>
+        <v>3.7587978488</v>
       </c>
       <c r="S29">
-        <v>7.768827455962682E-06</v>
+        <v>0.0007331123386421047</v>
       </c>
       <c r="T29">
-        <v>1.177791359339073E-05</v>
+        <v>0.0009095756360689354</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2270,55 +2270,55 @@
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.413146</v>
+        <v>0.1455233333333333</v>
       </c>
       <c r="H30">
-        <v>1.239438</v>
+        <v>0.43657</v>
       </c>
       <c r="I30">
-        <v>0.0179205026400845</v>
+        <v>0.007479962034613753</v>
       </c>
       <c r="J30">
-        <v>0.02126754782722214</v>
+        <v>0.009685317797424247</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M30">
-        <v>4.9910045</v>
+        <v>0.06227666666666667</v>
       </c>
       <c r="N30">
-        <v>9.982009</v>
+        <v>0.18683</v>
       </c>
       <c r="O30">
-        <v>0.06097395438375338</v>
+        <v>0.001417853662187452</v>
       </c>
       <c r="P30">
-        <v>0.05192766076571049</v>
+        <v>0.002037870001215217</v>
       </c>
       <c r="Q30">
-        <v>2.062013545157</v>
+        <v>0.009062708122222223</v>
       </c>
       <c r="R30">
-        <v>12.372081270942</v>
+        <v>0.0815643731</v>
       </c>
       <c r="S30">
-        <v>0.001092683910510444</v>
+        <v>1.060549156380021E-05</v>
       </c>
       <c r="T30">
-        <v>0.001104374008890514</v>
+        <v>1.973741859160672E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2332,55 +2332,55 @@
         <v>27</v>
       </c>
       <c r="D31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.413146</v>
+        <v>0.1455233333333333</v>
       </c>
       <c r="H31">
-        <v>1.239438</v>
+        <v>0.43657</v>
       </c>
       <c r="I31">
-        <v>0.0179205026400845</v>
+        <v>0.007479962034613753</v>
       </c>
       <c r="J31">
-        <v>0.02126754782722214</v>
+        <v>0.009685317797424247</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M31">
-        <v>24.727721</v>
+        <v>0.01385433333333333</v>
       </c>
       <c r="N31">
-        <v>74.18316300000001</v>
+        <v>0.041563</v>
       </c>
       <c r="O31">
-        <v>0.3020928817572056</v>
+        <v>0.000315421783233405</v>
       </c>
       <c r="P31">
-        <v>0.3859101031457101</v>
+        <v>0.0004533532669298726</v>
       </c>
       <c r="Q31">
-        <v>10.216159020266</v>
+        <v>0.002016128767777778</v>
       </c>
       <c r="R31">
-        <v>91.94543118239402</v>
+        <v>0.01814515891</v>
       </c>
       <c r="S31">
-        <v>0.005413656285080738</v>
+        <v>2.359342963476038E-06</v>
       </c>
       <c r="T31">
-        <v>0.008207361575659617</v>
+        <v>4.39087046471632E-06</v>
       </c>
     </row>
   </sheetData>
